--- a/demonstration_output/batch_test/FirstFINALvidExtra_iter1.xlsx
+++ b/demonstration_output/batch_test/FirstFINALvidExtra_iter1.xlsx
@@ -486,25 +486,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>P. point</v>
+        <v>Each</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
-        <v>2</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="str">
-        <v>Short point (up to 3 mtr.)</v>
+        <v>P &amp; F ISI marked (IS:3854) 6 amp. flush type non modular switch  with CM/L no. printed and made out from industrial grade Polycarbonate or fire resistant ABS material including cutting hole in tile and making connection testing etc. as required. All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
       </c>
       <c r="F8">
-        <v>256</v>
+        <v>23</v>
       </c>
       <c r="G8" t="str">
-        <v>9984.00</v>
+        <v>437.00</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -515,25 +515,25 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Each</v>
+        <v/>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D9" t="str">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="str">
-        <v>Providing &amp; Fixing of  of 3/5 pin 6 amp. flush type  non modular socket  made out from industrial grade Polycarbonate or fire resistant ABS material, brass terminal with Porcelain based back cover &amp; captive screws including cutting hole in tile and making connection testing etc. as required.All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
+        <v>S&amp;F following sizes (dia.) of ISI marked virgin material MMS ( IS:9537 P - III ) PVC conduit along with  ISI marked (IS:3419-1988) accessories as required  in  recess  including  cutting the wall, covering conduit and making good the same as required. For additional technical parameters of product / work refer Annexure 'A' attached with this BSR</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>2376.00</v>
+        <v>0.00</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -544,25 +544,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Set</v>
+        <v>Mtr.</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D10" t="str">
-        <v>13.0</v>
+        <v>19</v>
       </c>
       <c r="E10" t="str">
-        <v xml:space="preserve">Plate Earthing  as per IS:3043 with Hot dipped G.I. Earth plate of size 600mm x 600mm x 6.0mm by embodying  3 to 4 mtr. below the ground level with 20  mm dia. G.I. 'B' class watering Pipe ,including all accessories like nut, bolts, reducer, nipple, wire meshed funnel, and Heavy duty weather proof poly-propylene earth pit chamber with lockable Jam free lid suitable for safe working load 5000 Kg or more of size Top Dia. 225 to 260 mm, Bottom Dia 300 to 350 mm. and Height  250 to 300 mm. and embodying the pipe  complete with alternate layers salt and coke/ charcoal, testing of earth resistance for value of 5 ohms or less  as required &amp; must record by engineer in charge during site visit and ensure to enter in measurment book.All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .   </v>
+        <v>2 x 2.5 sq. mm. + 1x1.5sqmm</v>
       </c>
       <c r="F10">
-        <v>5733</v>
+        <v>81</v>
       </c>
       <c r="G10" t="str">
-        <v>120393.00</v>
+        <v>5994.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -573,25 +573,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v/>
+        <v>Set</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D11" t="str">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve">Supply &amp; Laying following size earth wire in horizontal or vertical run in ground/surface/recess including riveting, soldering, saddles,  making connection with GI/Cu purity purity &gt;95%  thimble etc. as required.  All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .   </v>
+        <v xml:space="preserve">Plate Earthing  as per IS:3043 with Hot dipped G.I. Earth plate of size 600mm x 600mm x 6.0mm by embodying  3 to 4 mtr. below the ground level with 20  mm dia. G.I. 'B' class watering Pipe ,including all accessories like nut, bolts, reducer, nipple, wire meshed funnel, and Heavy duty weather proof poly-propylene earth pit chamber with lockable Jam free lid suitable for safe working load 5000 Kg or more of size Top Dia. 225 to 260 mm, Bottom Dia 300 to 350 mm. and Height  250 to 300 mm. and embodying the pipe  complete with alternate layers salt and coke/ charcoal, testing of earth resistance for value of 5 ohms or less  as required &amp; must record by engineer in charge during site visit and ensure to enter in measurment book.All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .   </v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5733</v>
       </c>
       <c r="G11" t="str">
-        <v>0.00</v>
+        <v>561834.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -602,25 +602,25 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Each</v>
+        <v/>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D12" t="str">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E12" t="str">
-        <v xml:space="preserve"> 6 A to 32 A rating</v>
+        <v>Grand Total</v>
       </c>
       <c r="F12">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>18700.00</v>
+        <v>0.00</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>151453.00</v>
+        <v>568265.00</v>
       </c>
       <c r="H14" t="str">
-        <v>151453.00</v>
+        <v>568265.00</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -712,10 +712,10 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>151453.00</v>
+        <v>568265.00</v>
       </c>
       <c r="H16" t="str">
-        <v>151453.00</v>
+        <v>568265.00</v>
       </c>
       <c r="I16" t="str">
         <v/>

--- a/demonstration_output/batch_test/FirstFINALvidExtra_iter1.xlsx
+++ b/demonstration_output/batch_test/FirstFINALvidExtra_iter1.xlsx
@@ -486,25 +486,25 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Each</v>
+        <v>P. point</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" t="str">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
-        <v>P &amp; F ISI marked (IS:3854) 6 amp. flush type non modular switch  with CM/L no. printed and made out from industrial grade Polycarbonate or fire resistant ABS material including cutting hole in tile and making connection testing etc. as required. All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
+        <v>Medium point (up to 6 mtr.)</v>
       </c>
       <c r="F8">
-        <v>23</v>
+        <v>472</v>
       </c>
       <c r="G8" t="str">
-        <v>437.00</v>
+        <v>7080.00</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D9" t="str">
         <v>11.0</v>
@@ -544,25 +544,25 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Mtr.</v>
+        <v/>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D10" t="str">
-        <v>19</v>
+        <v>16.0</v>
       </c>
       <c r="E10" t="str">
-        <v>2 x 2.5 sq. mm. + 1x1.5sqmm</v>
+        <v>Providing &amp; Fixing of IP20 SMD Mid Power LED batten type integrated light fixture made from Powder coated Extruded aluminium  housing with in built driver  , System lumen efficacy ≥ 110 lm/Watt output, internal surge protection of 2.5 KV with Short &amp; Open circuit protection ,THD &lt; 10% , P. F.≥0.95, CRI &gt;80 , life time of minimum  50000 Burning Hours with , 70% of intial Lumen maintaned till life ends  , CCT 3000°K / 4000°K  / 5700°K /6000°K/6500°K (As per ANSI Bin) , Maximum power consumption should not more than the specified rating and Fixture shall be of  BIS standard and  trade mark certificate ( T.C.). Manufactures Word Mark/ Name Engraved/ Embossing/ Screen printing on housing. OEM must have its own in house NABL lab setup for all testing facilities for LED fixtures. (LM79 &amp; LM80) certificate / Report from OEM shall be submitted.  All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .</v>
       </c>
       <c r="F10">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>5994.00</v>
+        <v>0.00</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -573,25 +573,25 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Set</v>
+        <v>Each</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="D11" t="str">
-        <v>13.0</v>
+        <v>27</v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve">Plate Earthing  as per IS:3043 with Hot dipped G.I. Earth plate of size 600mm x 600mm x 6.0mm by embodying  3 to 4 mtr. below the ground level with 20  mm dia. G.I. 'B' class watering Pipe ,including all accessories like nut, bolts, reducer, nipple, wire meshed funnel, and Heavy duty weather proof poly-propylene earth pit chamber with lockable Jam free lid suitable for safe working load 5000 Kg or more of size Top Dia. 225 to 260 mm, Bottom Dia 300 to 350 mm. and Height  250 to 300 mm. and embodying the pipe  complete with alternate layers salt and coke/ charcoal, testing of earth resistance for value of 5 ohms or less  as required &amp; must record by engineer in charge during site visit and ensure to enter in measurment book.All as per pre approved by Engineer in charge.  For additional technical parameters of products/ work  , refer   Annexure "A" attached with this BSR .   </v>
+        <v>1170mm(+/-10%) LED batten with min. lumen output 2200 lm</v>
       </c>
       <c r="F11">
-        <v>5733</v>
+        <v>492</v>
       </c>
       <c r="G11" t="str">
-        <v>561834.00</v>
+        <v>19188.00</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -608,13 +608,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D12" t="str">
-        <v>38</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="str">
-        <v>Grand Total</v>
+        <v>Providing &amp; Fixing of Recessed/surface mounting heavy duty horizontal type Double Door ( Metal / Glazed )Distribution board with Metal end box made out from Galvanized steel / CRCA sheet not less then 1.2 mm thick  conforming to IS-8623-1 &amp; 3 /  IEC 61439- 1 &amp; 3, powder painted complete with reversible door (for double door DB only )100 amp.  insulated copper bus bar/shorting link , copper neutral link, copper earth link , color coded interconnecting wire set  of suitable rating and din bar,masking sheet,  making internal DB  terminations with copper lugs, Ferrules,  detachable gland plate, including making connections, testing etc. as required. OEM shall have submit  NABL / CPRI / ERDA accrediated   lab type test reports  &amp; All as per pre approved by Engineer in charge. For additional technical parameters of product / work refer Annexure 'A' attached with this BSR</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>568265.00</v>
+        <v>26268.00</v>
       </c>
       <c r="H14" t="str">
-        <v>568265.00</v>
+        <v>26268.00</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -712,10 +712,10 @@
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>568265.00</v>
+        <v>26268.00</v>
       </c>
       <c r="H16" t="str">
-        <v>568265.00</v>
+        <v>26268.00</v>
       </c>
       <c r="I16" t="str">
         <v/>
